--- a/django_vue/apep/excelGenerate/dsn.xlsx
+++ b/django_vue/apep/excelGenerate/dsn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,22 +503,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>834777237</t>
+          <t>440696508</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7022Z</t>
+          <t>4939A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A.B.S.E.</t>
+          <t>AIRPORT VAN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -526,27 +526,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>oui</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.00€</t>
+          <t>957042€</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>oui</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.00€</t>
+          <t>957042€</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.00€</t>
+          <t>339128€</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>488084005</t>
+          <t>805387339</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -566,12 +566,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A2J</t>
+          <t>AUDAFI</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -584,22 +584,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>362456€</t>
+          <t>41575€</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>oui</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>362456€</t>
+          <t>41575€</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.00€</t>
+          <t>4198€</t>
         </is>
       </c>
     </row>
@@ -609,50 +609,3695 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>531685261</t>
+          <t>804362234</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6831Z</t>
+          <t>8810A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A&amp;G CONSEIL</t>
+          <t>BANQUE ALIMENTAIRE VETAHER</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>81122€</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>81122€</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>761€</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>804411148</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8559A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CLAIRE FAURE FORMATION</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>oui</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>12316€</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>20803€</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>20803€</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0€</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>393462346</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4774Z</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CEREDAS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>675202€</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>675202€</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0€</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>538262916</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5621Z</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LES DELICES D ATHINA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23361€</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>23361€</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0€</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>403545031</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5811Z</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EDITIONS JEUNESSE SANS FRONTIERES</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>162069€</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>162069€</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0€</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>812246254</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7022Z</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>HARALD</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>17280€</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>17280€</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0€</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>514183482</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9499Z</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LES AMIS DE KETER CHLOMO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9236€</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>9236€</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0€</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>448611855</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>7420Z</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LIBRE COMME L ART</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>30417€</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>30417€</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0€</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>400500328</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8623Z</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>53203€</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>53203€</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1679€</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>847717873</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9602B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LENNY LIRON</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>27861€</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>27861€</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1763€</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>790933014</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7022Z</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PATRIMOCAP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>non</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>12316€</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.00€</t>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0€</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>819840687</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4619B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>YAD EXPERTS</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>493131692</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4332B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2 A M OUVERTURE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>542462€</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>542462€</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2445€</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>801161852</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8690A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AMBULANCES PRIVILEGES</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>301582€</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>301582€</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>6423€</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>853759017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>8690A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>AMBULANCES KYNO</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>25944€</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>25944€</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1003€</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>848976072</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>7022Z</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ARBURA CONSEIL</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>45000€</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>45000€</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0€</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>509948550</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>9601B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PRESSING SHIVA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>6359€</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>6359€</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513245803</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4638B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ITALDENREES</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>138563€</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>138563€</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>3851€</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519695050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4321A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PARIS RENOV DEPANNAGE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>27474€</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>27474€</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>6171€</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512472648</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4120A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SLB GENERAL</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>701131€</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>701131€</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>41085€</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>682004023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>6920Z</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>COMPTEX</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>210639€</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>210639€</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510899875</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>7022Z</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>L'AGENCE CLE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>262836€</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>262836€</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>850574443</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5610A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>AMAMI</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>297404€</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>297404€</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>39915€</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>514019033</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4690Z</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>APEX FRANCE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>100864€</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>100864€</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1832€</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>419604673</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4531Z</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>BL ADAPTAUTO</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>22085€</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>22085€</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>525200069</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5610A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>BONHEUR D'ISSY</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>36418€</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>36418€</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>753311992</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4649Z</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CADOA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>201839€</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>201839€</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>753311992</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4649Z</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CADOA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>163814€</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>163814€</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>5197€</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>825321185</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>6420Z</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CALC</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>30004€</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>30004€</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>789352440</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>7010Z</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CARBON 12.011 LICENSING</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>124770€</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>124770€</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>797540341</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4631Z</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CHAMPUR</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>123634€</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>123634€</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>538208547</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4729Z</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SARL EPICERIE  DU CHISTERA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>4550€</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>4550€</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519395529</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4646Z</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>DB ENDOSCOPIE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519395529</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4646Z</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DB ENDOSCOPIE</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>16380€</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>16380€</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>878990472</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4791B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ENOVA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2042€</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2042€</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>847974433</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>7022Z</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>EXPERIENCE WE LOVE</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>15825€</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>15825€</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>732007554</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4614Z</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GAMMATIC S A R L</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>83404€</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>83404€</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>533921375</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5621Z</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GILLES.SAVEURS</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>8998€</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>8998€</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>539482513</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4619B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GIMALEX</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>65000€</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>65000€</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515261527</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>5610A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GOURMET D'ASIE</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>139114€</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>139114€</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>490986510</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4778A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>18995€</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>18995€</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>797739091</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>9329Z</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>HHP</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>57004€</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>57004€</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>5909€</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>829637347</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>9329Z</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>KIBR</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>8181€</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>853096527</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>6630Z</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>KOLO CAPITAL</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2720€</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2720€</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>849113519</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5630Z</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LES PETITES FLECHES</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>23020€</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>23020€</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>830771044</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5610A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LUSARO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>66939€</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>66939€</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>25893€</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>823629936</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4722Z</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>MEDIUM RARE</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>823629936</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4722Z</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>MEDIUM RARE</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>134763€</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>134763€</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>3278€</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>841737372</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>5610C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SARL MILTON09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>9318€</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>9318€</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>801426107</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>6420Z</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>MIRACLE CAPITAL</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>410€</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>410€</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>819411430</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>6202A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>MIND THE TEA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>114478€</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>114478€</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>790844518</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4690Z</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NEGOCE PRESTATIONS INTERNATIONAL LIBRE</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>40020€</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>40020€</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>880254107</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>7010Z</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PARK &amp; CO</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>62041€</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>62041€</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>802699918</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>7022Z</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PRODAF CONSULTING</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>14420€</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>14420€</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>803546720</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>5630Z</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SAVEURS CREOLES</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>56401€</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>56401€</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>3544€</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>392860458</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>7112B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>KLAUS MULTIPARKING FRANCE</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>35247€</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>35247€</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>807653050</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>5610A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>LES SENTEURS D'ASIE</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>104217€</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>104217€</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>3732€</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>314173618</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4332B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SERSO</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>35190€</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>35190€</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>784854085</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>9420Z</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SYNDIC NAT PERSONN NAVIGANT AVIATION</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>29678€</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>397910779</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4662Z</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SOCLAFORM</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>134561€</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>134561€</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>722008455</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4662Z</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SOCLAM</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>294165€</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>294165€</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>851512814</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4690Z</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SPEED QUALITY FRUITS</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>4441€</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>4441€</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>451668578</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>8230Z</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>TEXPO</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>205268€</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>205268€</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>35296€</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>852725027</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4120A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>TRG</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>23212€</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>5056€</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>392018636</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4725Z</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>VIBES</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>392018636</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>4725Z</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>VIBES</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>29440€</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>29440€</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>393669585</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>5610C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>VILLA BANZOLO</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>78707€</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>78707€</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>14002€</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>430487454</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>4941B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>TRANSPORTS MANUTENTIONS COURSES</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>non</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>478640154</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>9602A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>43935€</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>43935€</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0.00€</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>479544959</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>5610A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>ANOIL RIAD SALAM</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>173278€</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>173278€</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>31677€</t>
         </is>
       </c>
     </row>
